--- a/hois_back/src/main/resources/templates/studyyearschedule.xlsx
+++ b/hois_back/src/main/resources/templates/studyyearschedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HITSA_OIS2\git\hois_back\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\git\hois\hois_back\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>${hois:translate('studyyearschedule.title')}</t>
   </si>
@@ -181,12 +181,18 @@
   </si>
   <si>
     <t>${!empty(schedule) ? schedule.code : ''}</t>
+  </si>
+  <si>
+    <t>${hois:translate('studyyearschedule.color')}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -636,9 +642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -647,12 +655,12 @@
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -662,8 +670,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -673,24 +684,27 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>

--- a/hois_back/src/main/resources/templates/studyyearschedule.xlsx
+++ b/hois_back/src/main/resources/templates/studyyearschedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\git\hois\hois_back\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eefrevarb\Documents\hois_back\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333EF593-A056-4ADC-81D8-D4456F9BB471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,13 +22,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Varb Fred</author>
     <author>Baum Jaan</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -35,13 +37,14 @@
             <sz val="9"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>jx:area(lastCell="D11")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>jx:area(lastCell="D14")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -56,87 +59,121 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="1" shapeId="0">
+    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{744B21F4-907D-4CE7-84B7-B89DB6F21792}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>jx:each(items="studyPeriods" var="studyPeriod" lastCell="C8" direction="RIGHT")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{2A888CC1-2D81-4759-B785-5CE00B274436}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>jx:each(items="studyPeriod.weeks" var="week" lastCell="C8" direction="RIGHT")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">jx:each(items="studyPeriods" var="studyPeriod" lastCell="C8" direction="RIGHT")
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(items="studyPeriods" var="studyPeriod" lastCell="B9" direction="RIGHT")
+jx:each(items="studyPeriod.weekDates" var="weekDate" lastCell="B9" direction="RIGHT")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="1" shapeId="0">
+    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{FB8E8076-AFDF-4A9E-8B75-DDCD3DEC053F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>jx:each(items="studyPeriods" var="studyPeriod" lastCell="B10" direction="RIGHT")
+jx:each(items="studyPeriod.weekDates" var="weekDate" lastCell="B10" direction="RIGHT")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="1" shapeId="0" xr:uid="{34A052B5-24E9-4A99-9E9C-155E5B070A96}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>jx:each(items="studyPeriods" var="studyPeriod" lastCell="B11" direction="RIGHT")
+jx:each(items="studyPeriod.weekDates" var="weekDate" lastCell="B11" direction="RIGHT")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="2" shapeId="0" xr:uid="{FE9EE07E-DF42-44B1-8C38-B1DDEDC60484}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">jx:each(items="studyPeriod.weeks" var="week" lastCell="C8" direction="RIGHT")
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(items="departments" var="department" lastCell="B13")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="1" shapeId="0">
+    <comment ref="A13" authorId="2" shapeId="0" xr:uid="{7CF84ED9-955D-4EA2-AEF7-CCCD61FEFFEC}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">jx:each(items="weeks" var="week" lastCell="B9" direction="RIGHT")
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(items="department.studentGroups" var="studentGroup" lastCell="B13")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="1" shapeId="0">
+    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{E112D194-2234-40BC-9CBB-961ED04419F3}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">jx:each(items="departments" var="department" lastCell="B11")
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">jx:each(items="department.studentGroups" var="studentGroup" lastCell="B11")
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">jx:each(items="studentGroup.schedule" var="schedule" lastCell="B11" direction="RIGHT")
-</t>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="186"/>
+          </rPr>
+          <t>jx:each(items="studentGroup.schedule" var="schedule" lastCell="B13" direction="RIGHT")</t>
         </r>
       </text>
     </comment>
@@ -145,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>${hois:translate('studyyearschedule.title')}</t>
   </si>
@@ -168,9 +205,6 @@
     <t>${item.nameEn}</t>
   </si>
   <si>
-    <t>${week}</t>
-  </si>
-  <si>
     <t>${studentGroup.group.code}</t>
   </si>
   <si>
@@ -187,13 +221,25 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>${studyYear}</t>
+  </si>
+  <si>
+    <t>${hois:shortDateAsString(weekDate.startDate)}</t>
+  </si>
+  <si>
+    <t>${hois:shortDateAsString(weekDate.endDate)}</t>
+  </si>
+  <si>
+    <t>${weekDate.weekNr}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -206,7 +252,8 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="186"/>
     </font>
     <font>
       <sz val="9"/>
@@ -216,8 +263,22 @@
       <charset val="186"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -226,8 +287,9 @@
     <font>
       <sz val="9"/>
       <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="186"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,12 +312,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -641,75 +706,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
@@ -737,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
